--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498902.6127354264</v>
+        <v>431889.0009836452</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4321361.842589804</v>
+        <v>3840854.495975444</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10435498.72183875</v>
+        <v>10457196.99249322</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548339.602247631</v>
+        <v>8566164.688334364</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
@@ -673,7 +673,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>3.26531605719669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>237.3811362441418</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>66.46948864201228</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>40.02188483835985</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.74233318692728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>232.8330857361503</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>227.7664834517761</v>
       </c>
     </row>
     <row r="9">
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>71.59646615385351</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>50.40328153489487</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>105.7448774897449</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
@@ -1432,10 +1432,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>241.2457390334737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958686</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>128.9248282947282</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.9602421584223</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0010682305589</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>296.2817567490233</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.900780601835</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.6154320772804</v>
       </c>
       <c r="D16" t="n">
-        <v>108.3118693224705</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>401.6424105276217</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.9537258292381445</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.900780601835</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.1711547627076</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>125.1184542090899</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>9.690553466730844</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.06688986841758</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>67.6837840967396</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001186</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>315.0408840752156</v>
+        <v>61.44251898056632</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>79.44491124779253</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U25" t="n">
-        <v>260.5129052049404</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>230.5937013833599</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>235.1792348453237</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.1342366882634</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>199.9571022609662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>216.0954061087065</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>412.9169039459368</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>143.3075316629638</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.02097823809485</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>95.10391318383998</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>128.1960058760379</v>
       </c>
       <c r="G32" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>223.7780029889997</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>152.7119963927485</v>
       </c>
       <c r="H34" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>16.57933671405046</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>11.9246083421511</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>55.38298073184035</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>70.07288036949814</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>122.1022459852816</v>
       </c>
       <c r="U37" t="n">
         <v>286.260654658097</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>252.1085120515385</v>
+        <v>203.7251057326018</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>147.9721212459916</v>
       </c>
       <c r="T39" t="n">
-        <v>195.0194028815136</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U39" t="n">
         <v>225.8573996139459</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>92.76716251556117</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>232.6900396322376</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>211.6549344378063</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>60.51172283484546</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>116.9979730949163</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>227.9017882635736</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>154.4294904448749</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>300.4078786665683</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>63.41107167461783</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.3971597168112</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>278.3906840967166</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3024922077873</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>92.52344006174989</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>19.12450171074273</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>133.7720277432331</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>191.9379658262512</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8071041233812</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2798525983037</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0137000398793</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>103.9922265400504</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>241.2561715027635</v>
+        <v>198.8885370273818</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4415,43 +4415,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>760.6642075620503</v>
       </c>
       <c r="X5" t="n">
-        <v>506.1786963984129</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501.9060370580465</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C6" t="n">
-        <v>327.4530077769195</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>309.879344433331</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>551.996449470862</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>794.113554508393</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>937.824783143196</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>709.6016900172199</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>474.4495817854772</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>227.4165187944242</v>
       </c>
       <c r="X6" t="n">
-        <v>512.7568786610034</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y6" t="n">
-        <v>501.9060370580465</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>291.0988920136273</v>
       </c>
       <c r="C8" t="n">
-        <v>718.7806050553886</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="D8" t="n">
-        <v>718.7806050553886</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="E8" t="n">
-        <v>475.3318284112885</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098027</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>787.0670914110444</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>521.1660470154213</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>291.0988920136273</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>531.8759051649694</v>
+        <v>615.8309699900008</v>
       </c>
       <c r="C9" t="n">
-        <v>531.8759051649694</v>
+        <v>441.3779407088738</v>
       </c>
       <c r="D9" t="n">
-        <v>382.9414955037181</v>
+        <v>441.3779407088738</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>441.3779407088738</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>294.8433827357587</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>24.95018035683217</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>398.824578434775</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>456.2953932224773</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>716.9050068346276</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T9" t="n">
-        <v>739.7274053705022</v>
+        <v>850.9830782217434</v>
       </c>
       <c r="U9" t="n">
-        <v>739.7274053705022</v>
+        <v>850.9830782217434</v>
       </c>
       <c r="V9" t="n">
-        <v>739.7274053705022</v>
+        <v>615.8309699900008</v>
       </c>
       <c r="W9" t="n">
-        <v>739.7274053705022</v>
+        <v>615.8309699900008</v>
       </c>
       <c r="X9" t="n">
-        <v>531.8759051649694</v>
+        <v>615.8309699900008</v>
       </c>
       <c r="Y9" t="n">
-        <v>531.8759051649694</v>
+        <v>615.8309699900008</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1305.810728885682</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="C11" t="n">
-        <v>1305.810728885682</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="D11" t="n">
-        <v>1305.810728885682</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E11" t="n">
-        <v>1305.810728885682</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F11" t="n">
-        <v>894.8248240960747</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G11" t="n">
-        <v>477.7370423325022</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H11" t="n">
-        <v>159.5139271050117</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I11" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K11" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L11" t="n">
-        <v>709.3115823537878</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M11" t="n">
-        <v>1341.029393337099</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N11" t="n">
-        <v>1968.337061396946</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O11" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P11" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q11" t="n">
         <v>2635.045976980643</v>
@@ -5068,25 +5068,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T11" t="n">
-        <v>2264.031077745182</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U11" t="n">
-        <v>2010.339374490333</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V11" t="n">
-        <v>1679.276487146762</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W11" t="n">
-        <v>1679.276487146762</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X11" t="n">
-        <v>1305.810728885682</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="Y11" t="n">
-        <v>1305.810728885682</v>
+        <v>1239.040304699543</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>791.6695746850918</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238405</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E12" t="n">
-        <v>483.497710018385</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F12" t="n">
-        <v>336.96315204527</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G12" t="n">
-        <v>199.521754404492</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929655</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I12" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K12" t="n">
-        <v>295.3416275592179</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L12" t="n">
-        <v>799.7031674253365</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M12" t="n">
-        <v>1440.248516892441</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q12" t="n">
         <v>2635.045976980643</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.4396934528909</v>
+        <v>369.5501960499129</v>
       </c>
       <c r="C13" t="n">
-        <v>307.4396934528909</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D13" t="n">
-        <v>307.4396934528909</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E13" t="n">
-        <v>307.4396934528909</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F13" t="n">
-        <v>307.4396934528909</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G13" t="n">
-        <v>307.4396934528909</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H13" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I13" t="n">
         <v>52.70091953961285</v>
@@ -5223,28 +5223,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R13" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>489.0881582831306</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U13" t="n">
-        <v>489.0881582831306</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V13" t="n">
-        <v>489.0881582831306</v>
+        <v>818.3323260914603</v>
       </c>
       <c r="W13" t="n">
-        <v>489.0881582831306</v>
+        <v>818.3323260914603</v>
       </c>
       <c r="X13" t="n">
-        <v>489.0881582831306</v>
+        <v>590.342775193443</v>
       </c>
       <c r="Y13" t="n">
-        <v>489.0881582831306</v>
+        <v>369.5501960499129</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1913.84375766126</v>
+        <v>1643.506943208421</v>
       </c>
       <c r="C14" t="n">
-        <v>1913.84375766126</v>
+        <v>1274.544426268009</v>
       </c>
       <c r="D14" t="n">
-        <v>1555.57805905451</v>
+        <v>1274.544426268009</v>
       </c>
       <c r="E14" t="n">
-        <v>1169.789806456265</v>
+        <v>888.7561736697648</v>
       </c>
       <c r="F14" t="n">
-        <v>758.8039016666578</v>
+        <v>888.7561736697648</v>
       </c>
       <c r="G14" t="n">
-        <v>370.9240347671034</v>
+        <v>471.6683919061923</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J14" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K14" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L14" t="n">
-        <v>1030.215540799241</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M14" t="n">
-        <v>1661.933351782553</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N14" t="n">
-        <v>1856.267564674535</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O14" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P14" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q14" t="n">
         <v>2635.045976980643</v>
@@ -5308,22 +5308,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T14" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U14" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="V14" t="n">
-        <v>2303.983089637072</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="W14" t="n">
-        <v>2303.983089637072</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="X14" t="n">
-        <v>2303.983089637072</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="Y14" t="n">
-        <v>1913.84375766126</v>
+        <v>2030.106783272543</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D15" t="n">
         <v>642.7351650238404</v>
@@ -5348,40 +5348,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J15" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K15" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L15" t="n">
-        <v>886.4908637115414</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M15" t="n">
-        <v>1527.036213178646</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.183399498644</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O15" t="n">
-        <v>2503.619408251367</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q15" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S15" t="n">
         <v>2464.467288245464</v>
@@ -5396,10 +5396,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y15" t="n">
         <v>1134.337940986287</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.1576397183603</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="C16" t="n">
-        <v>922.1576397183603</v>
+        <v>371.4244039565652</v>
       </c>
       <c r="D16" t="n">
-        <v>812.7517111098042</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E16" t="n">
-        <v>664.8386175274111</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F16" t="n">
-        <v>517.9486700295007</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G16" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I16" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J16" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K16" t="n">
         <v>153.7488491352227</v>
@@ -5460,28 +5460,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R16" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S16" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U16" t="n">
-        <v>922.1576397183603</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V16" t="n">
-        <v>922.1576397183603</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W16" t="n">
-        <v>922.1576397183603</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="X16" t="n">
-        <v>922.1576397183603</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="Y16" t="n">
-        <v>922.1576397183603</v>
+        <v>474.0662545396768</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1187.609344130066</v>
+        <v>1994.754433661672</v>
       </c>
       <c r="C17" t="n">
-        <v>1187.609344130066</v>
+        <v>1625.791916721261</v>
       </c>
       <c r="D17" t="n">
-        <v>1187.609344130066</v>
+        <v>1267.52621811451</v>
       </c>
       <c r="E17" t="n">
-        <v>1187.609344130066</v>
+        <v>881.7379655162658</v>
       </c>
       <c r="F17" t="n">
-        <v>776.6234393404586</v>
+        <v>470.7520607266583</v>
       </c>
       <c r="G17" t="n">
-        <v>370.9240347671034</v>
+        <v>53.66427896308574</v>
       </c>
       <c r="H17" t="n">
-        <v>52.70091953961285</v>
+        <v>53.66427896308574</v>
       </c>
       <c r="I17" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J17" t="n">
         <v>241.3408185533492</v>
@@ -5521,16 +5521,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L17" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M17" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N17" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O17" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P17" t="n">
         <v>2389.870016205742</v>
@@ -5548,19 +5548,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U17" t="n">
-        <v>2635.045976980643</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V17" t="n">
-        <v>2303.983089637072</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W17" t="n">
-        <v>1951.214434366958</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="X17" t="n">
-        <v>1577.748676105878</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="Y17" t="n">
-        <v>1187.609344130066</v>
+        <v>2381.354273725794</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I18" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J18" t="n">
         <v>171.3601713965085</v>
@@ -5600,19 +5600,19 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L18" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M18" t="n">
-        <v>1547.550142987488</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.206884640153</v>
+        <v>1930.737402487826</v>
       </c>
       <c r="O18" t="n">
-        <v>2295.642893392876</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P18" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q18" t="n">
         <v>2635.045976980643</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C19" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D19" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E19" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F19" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G19" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H19" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I19" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J19" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K19" t="n">
         <v>153.7488491352227</v>
@@ -5700,25 +5700,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S19" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T19" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U19" t="n">
-        <v>763.4834245766374</v>
+        <v>556.0431398290427</v>
       </c>
       <c r="V19" t="n">
-        <v>508.7989363707505</v>
+        <v>301.3586516231559</v>
       </c>
       <c r="W19" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X19" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.3817663337899</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1567.960238260695</v>
+        <v>975.8573539063434</v>
       </c>
       <c r="C20" t="n">
-        <v>1198.997721320284</v>
+        <v>975.8573539063434</v>
       </c>
       <c r="D20" t="n">
-        <v>1198.997721320284</v>
+        <v>975.8573539063434</v>
       </c>
       <c r="E20" t="n">
-        <v>1198.997721320284</v>
+        <v>590.0691013080991</v>
       </c>
       <c r="F20" t="n">
-        <v>788.0118165306759</v>
+        <v>179.0831965184915</v>
       </c>
       <c r="G20" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H20" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I20" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J20" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K20" t="n">
-        <v>333.6203513047262</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L20" t="n">
-        <v>472.9490071459794</v>
+        <v>463.2326289691948</v>
       </c>
       <c r="M20" t="n">
-        <v>1104.666818129291</v>
+        <v>1094.950439952506</v>
       </c>
       <c r="N20" t="n">
-        <v>1731.974486189138</v>
+        <v>1722.258108012353</v>
       </c>
       <c r="O20" t="n">
-        <v>2279.135690956215</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P20" t="n">
         <v>2389.870016205742</v>
@@ -5779,25 +5779,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S20" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T20" t="n">
-        <v>2625.25753913546</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U20" t="n">
-        <v>2625.25753913546</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V20" t="n">
-        <v>2294.194651791889</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W20" t="n">
-        <v>1941.425996521775</v>
+        <v>2126.062284207357</v>
       </c>
       <c r="X20" t="n">
-        <v>1567.960238260695</v>
+        <v>1752.596525946277</v>
       </c>
       <c r="Y20" t="n">
-        <v>1567.960238260695</v>
+        <v>1362.457193970465</v>
       </c>
     </row>
     <row r="21">
@@ -5822,13 +5822,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H21" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I21" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J21" t="n">
         <v>171.3601713965085</v>
@@ -5837,16 +5837,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L21" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M21" t="n">
-        <v>1232.27200203395</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N21" t="n">
-        <v>1430.928743686615</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P21" t="n">
         <v>2404.332520920175</v>
@@ -5855,7 +5855,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R21" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S21" t="n">
         <v>2464.467288245464</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>221.6371024675198</v>
+        <v>437.9176547334882</v>
       </c>
       <c r="C22" t="n">
-        <v>52.70091953961285</v>
+        <v>268.9814718055814</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70091953961285</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F22" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G22" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H22" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I22" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J22" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K22" t="n">
         <v>153.7488491352227</v>
@@ -5934,28 +5934,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R22" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>714.7173549707657</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T22" t="n">
-        <v>489.0881582831306</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U22" t="n">
-        <v>489.0881582831306</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V22" t="n">
-        <v>489.0881582831306</v>
+        <v>619.566119563728</v>
       </c>
       <c r="W22" t="n">
-        <v>489.0881582831306</v>
+        <v>619.566119563728</v>
       </c>
       <c r="X22" t="n">
-        <v>261.0986073851133</v>
+        <v>619.566119563728</v>
       </c>
       <c r="Y22" t="n">
-        <v>261.0986073851133</v>
+        <v>619.566119563728</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>739.8865517075151</v>
+        <v>1328.626009176458</v>
       </c>
       <c r="C23" t="n">
-        <v>370.9240347671034</v>
+        <v>1328.626009176458</v>
       </c>
       <c r="D23" t="n">
-        <v>370.9240347671034</v>
+        <v>1328.626009176458</v>
       </c>
       <c r="E23" t="n">
-        <v>370.9240347671034</v>
+        <v>942.8377565782134</v>
       </c>
       <c r="F23" t="n">
-        <v>370.9240347671034</v>
+        <v>531.8518517886059</v>
       </c>
       <c r="G23" t="n">
-        <v>370.9240347671034</v>
+        <v>114.7640700250334</v>
       </c>
       <c r="H23" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I23" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J23" t="n">
         <v>241.3408185533492</v>
@@ -5998,13 +5998,13 @@
         <v>1032.36013938198</v>
       </c>
       <c r="M23" t="n">
-        <v>1219.059552207387</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N23" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O23" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P23" t="n">
         <v>2389.870016205742</v>
@@ -6019,22 +6019,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T23" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U23" t="n">
-        <v>2183.783692646402</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V23" t="n">
-        <v>1852.720805302831</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W23" t="n">
-        <v>1499.952150032717</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X23" t="n">
-        <v>1126.486391771637</v>
+        <v>2105.365181216391</v>
       </c>
       <c r="Y23" t="n">
-        <v>1126.486391771637</v>
+        <v>1715.225849240579</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J24" t="n">
         <v>171.3601713965085</v>
       </c>
       <c r="K24" t="n">
-        <v>500.7885757023184</v>
+        <v>339.0498120881828</v>
       </c>
       <c r="L24" t="n">
-        <v>638.0181737180123</v>
+        <v>843.4113519543014</v>
       </c>
       <c r="M24" t="n">
-        <v>817.5155100726172</v>
+        <v>1483.956701421406</v>
       </c>
       <c r="N24" t="n">
-        <v>1469.689389375326</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O24" t="n">
-        <v>2019.125398128049</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P24" t="n">
         <v>2404.332520920175</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C25" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D25" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E25" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F25" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G25" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H25" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I25" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J25" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K25" t="n">
         <v>153.7488491352227</v>
@@ -6177,22 +6177,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T25" t="n">
-        <v>1052.635600998958</v>
+        <v>885.9547542047806</v>
       </c>
       <c r="U25" t="n">
-        <v>789.4912523070986</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V25" t="n">
-        <v>789.4912523070986</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W25" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X25" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y25" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>739.8865517075151</v>
+        <v>1249.737123033205</v>
       </c>
       <c r="C26" t="n">
-        <v>370.9240347671034</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D26" t="n">
-        <v>370.9240347671034</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E26" t="n">
-        <v>370.9240347671034</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F26" t="n">
-        <v>370.9240347671034</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G26" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J26" t="n">
         <v>241.3408185533492</v>
@@ -6232,16 +6232,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L26" t="n">
-        <v>964.3339206741936</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M26" t="n">
-        <v>1596.051731657505</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N26" t="n">
-        <v>1790.385944549488</v>
+        <v>1610.188611289942</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P26" t="n">
         <v>2389.870016205742</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T26" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U26" t="n">
-        <v>2187.323184558091</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V26" t="n">
-        <v>1856.260297214521</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W26" t="n">
-        <v>1503.491641944407</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="X26" t="n">
-        <v>1130.025883683327</v>
+        <v>2026.476295073138</v>
       </c>
       <c r="Y26" t="n">
-        <v>739.8865517075151</v>
+        <v>1636.336963097326</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C27" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D27" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E27" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F27" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965083</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K27" t="n">
-        <v>500.7885757023182</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L27" t="n">
-        <v>638.0181737180121</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M27" t="n">
-        <v>1278.563523185117</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N27" t="n">
-        <v>1930.737402487826</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O27" t="n">
-        <v>2090.249715156587</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q27" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6338,19 +6338,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V27" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W27" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y27" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>669.010265198045</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C28" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D28" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E28" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F28" t="n">
-        <v>500.0740822701381</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G28" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H28" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6411,25 +6411,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S28" t="n">
-        <v>1052.635600998958</v>
+        <v>878.7626346471765</v>
       </c>
       <c r="T28" t="n">
-        <v>1052.635600998958</v>
+        <v>878.7626346471765</v>
       </c>
       <c r="U28" t="n">
-        <v>1052.635600998958</v>
+        <v>878.7626346471765</v>
       </c>
       <c r="V28" t="n">
-        <v>1052.635600998958</v>
+        <v>624.0781464412896</v>
       </c>
       <c r="W28" t="n">
-        <v>1052.635600998958</v>
+        <v>624.0781464412896</v>
       </c>
       <c r="X28" t="n">
-        <v>1052.635600998958</v>
+        <v>624.0781464412896</v>
       </c>
       <c r="Y28" t="n">
-        <v>850.6587300282847</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1484.84104667963</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="C29" t="n">
-        <v>1266.562858691037</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D29" t="n">
-        <v>1266.562858691037</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E29" t="n">
-        <v>880.774606092793</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F29" t="n">
         <v>469.7887013031854</v>
@@ -6493,22 +6493,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T29" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U29" t="n">
-        <v>2635.045976980643</v>
+        <v>2275.491032760512</v>
       </c>
       <c r="V29" t="n">
-        <v>2635.045976980643</v>
+        <v>1944.428145416942</v>
       </c>
       <c r="W29" t="n">
-        <v>2635.045976980643</v>
+        <v>1591.659490146827</v>
       </c>
       <c r="X29" t="n">
-        <v>2261.580218719563</v>
+        <v>1218.193731885748</v>
       </c>
       <c r="Y29" t="n">
-        <v>1871.440886743751</v>
+        <v>828.0543999099359</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I30" t="n">
         <v>52.70091953961286</v>
@@ -6548,16 +6548,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L30" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M30" t="n">
-        <v>1278.563523185117</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N30" t="n">
-        <v>1930.737402487826</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O30" t="n">
-        <v>2090.249715156587</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P30" t="n">
         <v>2404.332520920175</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1635.111295521298</v>
+        <v>246.0767036416594</v>
       </c>
       <c r="C31" t="n">
-        <v>1635.111295521298</v>
+        <v>246.0767036416594</v>
       </c>
       <c r="D31" t="n">
-        <v>1635.111295521298</v>
+        <v>246.0767036416594</v>
       </c>
       <c r="E31" t="n">
-        <v>1635.111295521298</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J31" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K31" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L31" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M31" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N31" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O31" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P31" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R31" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>2427.605692233049</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>2201.976495545413</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>1912.824319123093</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V31" t="n">
-        <v>1816.759760351538</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W31" t="n">
-        <v>1816.759760351538</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="X31" t="n">
-        <v>1816.759760351538</v>
+        <v>246.0767036416594</v>
       </c>
       <c r="Y31" t="n">
-        <v>1816.759760351538</v>
+        <v>246.0767036416594</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1704.478944518417</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="C32" t="n">
-        <v>1704.478944518417</v>
+        <v>957.5453149362368</v>
       </c>
       <c r="D32" t="n">
-        <v>1704.478944518417</v>
+        <v>599.2796163294863</v>
       </c>
       <c r="E32" t="n">
-        <v>1318.690691920173</v>
+        <v>599.2796163294863</v>
       </c>
       <c r="F32" t="n">
-        <v>907.7047871305651</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G32" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H32" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I32" t="n">
         <v>52.70091953961286</v>
@@ -6703,19 +6703,19 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K32" t="n">
-        <v>323.9039731279416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>876.7172313741407</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M32" t="n">
-        <v>1508.435042357452</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N32" t="n">
-        <v>1702.769255249435</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O32" t="n">
-        <v>2249.930460016512</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P32" t="n">
         <v>2389.870016205742</v>
@@ -6727,25 +6727,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U32" t="n">
-        <v>2409.007590123068</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V32" t="n">
-        <v>2077.944702779497</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W32" t="n">
-        <v>2077.944702779497</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X32" t="n">
-        <v>1704.478944518417</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y32" t="n">
-        <v>1704.478944518417</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I33" t="n">
         <v>52.70091953961286</v>
@@ -6782,19 +6782,19 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K33" t="n">
-        <v>500.7885757023184</v>
+        <v>477.28880878469</v>
       </c>
       <c r="L33" t="n">
-        <v>1005.150115568437</v>
+        <v>981.6503486508086</v>
       </c>
       <c r="M33" t="n">
-        <v>1547.550142987489</v>
+        <v>1622.195698117913</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.206884640153</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O33" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P33" t="n">
         <v>2404.332520920175</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2124.836227800152</v>
+        <v>353.8454088483803</v>
       </c>
       <c r="C34" t="n">
-        <v>2124.836227800152</v>
+        <v>353.8454088483803</v>
       </c>
       <c r="D34" t="n">
-        <v>1974.719588387817</v>
+        <v>353.8454088483803</v>
       </c>
       <c r="E34" t="n">
-        <v>1974.719588387817</v>
+        <v>353.8454088483803</v>
       </c>
       <c r="F34" t="n">
-        <v>1974.719588387817</v>
+        <v>206.95546135047</v>
       </c>
       <c r="G34" t="n">
-        <v>1806.1127433832</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H34" t="n">
-        <v>1651.858100282965</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K34" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L34" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M34" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N34" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O34" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P34" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U34" t="n">
-        <v>2635.045976980643</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V34" t="n">
-        <v>2635.045976980643</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W34" t="n">
-        <v>2345.628806943682</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="X34" t="n">
-        <v>2345.628806943682</v>
+        <v>535.49387367862</v>
       </c>
       <c r="Y34" t="n">
-        <v>2124.836227800152</v>
+        <v>535.49387367862</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1270.565427097012</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="C35" t="n">
-        <v>901.6029101566</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="D35" t="n">
-        <v>901.6029101566</v>
+        <v>1278.607917622503</v>
       </c>
       <c r="E35" t="n">
-        <v>901.6029101566</v>
+        <v>892.8196650242587</v>
       </c>
       <c r="F35" t="n">
-        <v>490.6170053669925</v>
+        <v>481.8337602346512</v>
       </c>
       <c r="G35" t="n">
-        <v>490.6170053669925</v>
+        <v>64.74597847107862</v>
       </c>
       <c r="H35" t="n">
-        <v>172.393890139502</v>
+        <v>64.74597847107862</v>
       </c>
       <c r="I35" t="n">
         <v>52.70091953961286</v>
@@ -6943,13 +6943,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>784.1365874146478</v>
+        <v>964.333920674194</v>
       </c>
       <c r="M35" t="n">
-        <v>970.8360002400555</v>
+        <v>1596.051731657506</v>
       </c>
       <c r="N35" t="n">
-        <v>1598.143668299902</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O35" t="n">
         <v>1960.554969866448</v>
@@ -6973,16 +6973,16 @@
         <v>2010.339374490333</v>
       </c>
       <c r="V35" t="n">
-        <v>1679.276487146763</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W35" t="n">
-        <v>1326.507831876648</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X35" t="n">
-        <v>1270.565427097012</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="Y35" t="n">
-        <v>1270.565427097012</v>
+        <v>1636.873616229253</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K36" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L36" t="n">
-        <v>376.1975890755595</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M36" t="n">
-        <v>1016.742938542664</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N36" t="n">
-        <v>1668.916817845373</v>
+        <v>1930.737402487826</v>
       </c>
       <c r="O36" t="n">
-        <v>2218.352826598096</v>
+        <v>2090.249715156587</v>
       </c>
       <c r="P36" t="n">
         <v>2404.332520920175</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>292.4177897094371</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C37" t="n">
-        <v>123.4816067815302</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D37" t="n">
-        <v>123.4816067815302</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E37" t="n">
-        <v>123.4816067815302</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F37" t="n">
-        <v>123.4816067815302</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G37" t="n">
         <v>52.70091953961286</v>
@@ -7125,22 +7125,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>1052.635600998958</v>
+        <v>929.2999989936227</v>
       </c>
       <c r="U37" t="n">
-        <v>763.4834245766374</v>
+        <v>640.1478225713024</v>
       </c>
       <c r="V37" t="n">
-        <v>763.4834245766374</v>
+        <v>640.1478225713024</v>
       </c>
       <c r="W37" t="n">
-        <v>474.0662545396768</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="X37" t="n">
-        <v>474.0662545396768</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="Y37" t="n">
-        <v>474.0662545396768</v>
+        <v>350.7306525343417</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2248.446136916521</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="C38" t="n">
-        <v>1879.483619976109</v>
+        <v>1444.823239782979</v>
       </c>
       <c r="D38" t="n">
-        <v>1521.217921369359</v>
+        <v>1086.557541176229</v>
       </c>
       <c r="E38" t="n">
-        <v>1135.429668771115</v>
+        <v>1086.557541176229</v>
       </c>
       <c r="F38" t="n">
-        <v>724.4437639815071</v>
+        <v>675.5716363866215</v>
       </c>
       <c r="G38" t="n">
-        <v>307.3559822179346</v>
+        <v>258.483854623049</v>
       </c>
       <c r="H38" t="n">
         <v>52.70091953961286</v>
@@ -7180,13 +7180,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M38" t="n">
-        <v>1163.078276489642</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N38" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O38" t="n">
         <v>1960.554969866448</v>
@@ -7204,22 +7204,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U38" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V38" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W38" t="n">
-        <v>2635.045976980643</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="X38" t="n">
-        <v>2635.045976980643</v>
+        <v>1813.785756723391</v>
       </c>
       <c r="Y38" t="n">
-        <v>2635.045976980643</v>
+        <v>1813.785756723391</v>
       </c>
     </row>
     <row r="39">
@@ -7262,13 +7262,13 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M39" t="n">
-        <v>1547.550142987489</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N39" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O39" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P39" t="n">
         <v>2404.332520920175</v>
@@ -7277,10 +7277,10 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.467288245465</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T39" t="n">
         <v>2267.477992405552</v>
@@ -7359,25 +7359,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S40" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T40" t="n">
-        <v>751.4911116901901</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U40" t="n">
-        <v>462.3389352678699</v>
+        <v>817.5951569259904</v>
       </c>
       <c r="V40" t="n">
-        <v>462.3389352678699</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W40" t="n">
-        <v>462.3389352678699</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X40" t="n">
-        <v>234.3493843698526</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y40" t="n">
-        <v>234.3493843698526</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>739.8865517075151</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="C41" t="n">
-        <v>370.9240347671034</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D41" t="n">
-        <v>370.9240347671034</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E41" t="n">
-        <v>370.9240347671034</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F41" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G41" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H41" t="n">
         <v>52.70091953961286</v>
@@ -7411,19 +7411,19 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J41" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K41" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L41" t="n">
-        <v>1197.621189819594</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M41" t="n">
-        <v>1384.320602645002</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N41" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O41" t="n">
         <v>1960.554969866448</v>
@@ -7438,25 +7438,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S41" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U41" t="n">
-        <v>2573.923024622213</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V41" t="n">
-        <v>2242.860137278642</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W41" t="n">
-        <v>1890.091482008528</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X41" t="n">
-        <v>1516.625723747449</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="Y41" t="n">
-        <v>1126.486391771637</v>
+        <v>1421.533638602706</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H42" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I42" t="n">
         <v>52.70091953961286</v>
@@ -7499,13 +7499,13 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M42" t="n">
-        <v>1547.550142987489</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N42" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O42" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P42" t="n">
         <v>2404.332520920175</v>
@@ -7593,19 +7593,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R43" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S43" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>596.5375841678199</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U43" t="n">
-        <v>307.3854077454997</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V43" t="n">
-        <v>52.70091953961286</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W43" t="n">
         <v>52.70091953961286</v>
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1356.132614790906</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="C44" t="n">
-        <v>987.1700978504941</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D44" t="n">
-        <v>987.1700978504941</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E44" t="n">
-        <v>987.1700978504941</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F44" t="n">
-        <v>576.1841930608866</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G44" t="n">
-        <v>420.1948087731342</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H44" t="n">
-        <v>116.7525070897319</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I44" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
-        <v>193.9926295475604</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K44" t="n">
-        <v>456.4907949980433</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L44" t="n">
-        <v>819.0447427728841</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.125303783477</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N44" t="n">
-        <v>1700.859731512776</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O44" t="n">
-        <v>2109.363122473163</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P44" t="n">
-        <v>2423.510314738926</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q44" t="n">
-        <v>2611.24902655301</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R44" t="n">
         <v>2635.045976980643</v>
@@ -7678,22 +7678,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T44" t="n">
-        <v>2426.563997468712</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U44" t="n">
-        <v>2426.563997468712</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V44" t="n">
-        <v>2095.501110125142</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W44" t="n">
-        <v>1742.732454855028</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X44" t="n">
-        <v>1742.732454855028</v>
+        <v>1109.257111118741</v>
       </c>
       <c r="Y44" t="n">
-        <v>1742.732454855028</v>
+        <v>828.0543999099359</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3052542689253</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8522249877983</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D45" t="n">
-        <v>607.917815326547</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6803603210915</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1458023479764</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4766182997064</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H45" t="n">
-        <v>72.01859803531259</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I45" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>118.0354471182384</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K45" t="n">
-        <v>307.8573858054794</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L45" t="n">
-        <v>609.4189490078364</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M45" t="n">
-        <v>980.6839376972262</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.857816999935</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O45" t="n">
-        <v>2189.047972268171</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P45" t="n">
-        <v>2442.262094296974</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q45" t="n">
-        <v>2561.609832686965</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2561.609832686965</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.486572340265</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.609839182435</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.521855219424</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.369746987682</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.13239025948</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.280890053947</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.520591288993</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.0278370141508</v>
+        <v>371.4244039565652</v>
       </c>
       <c r="C46" t="n">
-        <v>621.0916540862439</v>
+        <v>371.4244039565652</v>
       </c>
       <c r="D46" t="n">
-        <v>621.0916540862439</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E46" t="n">
-        <v>621.0916540862439</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F46" t="n">
-        <v>474.2017065883335</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G46" t="n">
-        <v>306.2422595193399</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7435726103709</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I46" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>80.04222654763831</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
-        <v>254.8092295930466</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L46" t="n">
-        <v>533.9772579209388</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M46" t="n">
-        <v>838.7099246413406</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N46" t="n">
-        <v>1141.631346079985</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O46" t="n">
-        <v>1405.412012516899</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P46" t="n">
-        <v>1607.601259943067</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q46" t="n">
-        <v>1664.151534413982</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>1664.151534413982</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>1664.151534413982</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T46" t="n">
-        <v>1664.151534413982</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U46" t="n">
-        <v>1420.458431885938</v>
+        <v>626.1088921624521</v>
       </c>
       <c r="V46" t="n">
-        <v>1420.458431885938</v>
+        <v>371.4244039565652</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.458431885938</v>
+        <v>371.4244039565652</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.468880987921</v>
+        <v>371.4244039565652</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.6763018443905</v>
+        <v>371.4244039565652</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>305.4787308973524</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>255.9771075721939</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>187.6430684261042</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368072</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>176.8008973295434</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>250.7308605730631</v>
       </c>
       <c r="O14" t="n">
-        <v>145.7678996245036</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N15" t="n">
-        <v>230.798428956902</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,13 +9169,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9248,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>366.5683748125722</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>99.08237590024453</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>9.814523410893599</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>68.81599650215651</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9485,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>347.1032070028245</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>250.7308605730627</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>101.0927485134518</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>458.0981188384286</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>279.3106012776028</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>182.0175083429755</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>182.017508342976</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N27" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>207.4678568043321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>458.0981188384287</v>
+        <v>48.1056061726357</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>207.4678568043331</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10351,13 +10351,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>29.50023327242749</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>240.7280987119439</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>366.5683748125727</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10591,16 +10591,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>182.017508342976</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>194.1841174238245</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>458.0981188384287</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>78.07077454018199</v>
+        <v>207.4678568043331</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10828,16 +10828,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M38" t="n">
-        <v>194.1841174238245</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>366.5683748125727</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>213.8698272853578</v>
+        <v>2.166261194686115</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5683748125727</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N45" t="n">
-        <v>259.2666325054712</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>218.7927243836428</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>18.95691945092472</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
@@ -22561,7 +22561,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>412.0374214579384</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22597,7 +22597,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.31384691677781</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>94.7608136808341</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>142.214025564616</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>160.110992158359</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>194.9403625903771</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,25 +22983,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>115.0560776587299</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23023,28 +23023,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>132.4398060348572</v>
+        <v>102.0308578193407</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574613</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268022</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>158.4714552042775</v>
       </c>
     </row>
     <row r="9">
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>65.69755052584215</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>149.7614471599267</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>12.75116340414544</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>128.4853616449953</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>23.78726837450432</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
         <v>17.69584188176898</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>20.17740116540566</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>28.91583571537791</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>18.75912732619224</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>65.63138902134742</v>
       </c>
       <c r="D16" t="n">
-        <v>40.30360369574181</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001186</v>
@@ -23709,13 +23709,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>11.2744934183151</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>117.5423150646522</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>1.906738228335172</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23940,7 +23940,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.35184357388343</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>287.7984497368469</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938903</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.9613096482352</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.7650903135197</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>80.93168892147276</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>253.5983650946492</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938903</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>171.7098749745081</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J25" t="n">
         <v>17.69584188176898</v>
@@ -24417,13 +24417,13 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U25" t="n">
-        <v>25.74774945315659</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
         <v>118.4960408938903</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>20.56108483894073</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>134.5518658331453</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J28" t="n">
         <v>17.69584188176898</v>
@@ -24651,7 +24651,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001186</v>
+        <v>33.23164521185527</v>
       </c>
       <c r="T28" t="n">
         <v>223.3729047207587</v>
@@ -24660,7 +24660,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.62755109112857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>149.1774856623011</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>107.8472545593369</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.4129844084743</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
@@ -24888,22 +24888,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>157.033730139988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>278.6800398656735</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>27.37678323330093</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>14.20878016182192</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I34" t="n">
-        <v>106.6872211653665</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J34" t="n">
         <v>17.69584188176898</v>
@@ -25131,19 +25131,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>106.5714325517392</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>314.3481199466287</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>96.8478961850723</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25365,7 +25365,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>101.2706587354771</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>62.93237202367709</v>
+        <v>111.3157783426138</v>
       </c>
       <c r="I38" t="n">
         <v>118.4960408938903</v>
@@ -25444,16 +25444,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,25 +25599,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>130.6057422051975</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>53.57061502585941</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>153.6179573332013</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938903</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>190.6430633874552</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>106.3749316258424</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>58.3588663945234</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>257.0585834843504</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>122.0934231223255</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0404798209637</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>107.847254559337</v>
       </c>
     </row>
     <row r="45">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>100.3549099614712</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1963253168159</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>220.6344114530736</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>44.96952366680983</v>
+        <v>87.37211763071519</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378616</v>
+        <v>490531.2536378617</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490531.2536378618</v>
+        <v>493620.5445765709</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490531.2536378618</v>
+        <v>509635.5853000617</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>826551.4445986438</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
   </sheetData>
@@ -26316,16 +26316,16 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="F2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="G2" t="n">
         <v>252134.9940623532</v>
@@ -26334,28 +26334,28 @@
         <v>252134.9940623532</v>
       </c>
       <c r="I2" t="n">
+        <v>252134.9940623531</v>
+      </c>
+      <c r="J2" t="n">
         <v>252134.9940623532</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>252134.9940623531</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>252134.9940623532</v>
-      </c>
-      <c r="L2" t="n">
-        <v>252134.9940623531</v>
       </c>
       <c r="M2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="N2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="O2" t="n">
         <v>252134.9940623531</v>
       </c>
       <c r="P2" t="n">
-        <v>262911.8505314357</v>
+        <v>252134.9940623532</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753564</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>576404.8681646985</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847434</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664029</v>
+        <v>98565.03158297982</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>236559.9980917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>50385.00392753457</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753458</v>
+        <v>50404.27455704983</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753457</v>
+        <v>50480.80391628888</v>
       </c>
       <c r="E4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="F4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="G4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="H4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="I4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="J4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="K4" t="n">
         <v>36133.96051511373</v>
       </c>
       <c r="L4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="M4" t="n">
         <v>36133.96051511373</v>
       </c>
       <c r="N4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="O4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="P4" t="n">
-        <v>7416.310118926247</v>
+        <v>36133.96051511372</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
       </c>
       <c r="F5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="G5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="H5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="I5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="K5" t="n">
         <v>52990.47783747559</v>
@@ -26511,7 +26511,7 @@
         <v>52990.47783747559</v>
       </c>
       <c r="P5" t="n">
-        <v>60738.66581059821</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38199.13257121145</v>
+        <v>-50417.14319125188</v>
       </c>
       <c r="C6" t="n">
-        <v>42570.2989603363</v>
+        <v>26588.92740361415</v>
       </c>
       <c r="D6" t="n">
-        <v>42570.29896033629</v>
+        <v>12499.89299923303</v>
       </c>
       <c r="E6" t="n">
-        <v>-438520.0488143567</v>
+        <v>-419088.8864625798</v>
       </c>
       <c r="F6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="G6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="H6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="I6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="J6" t="n">
-        <v>99950.61311065759</v>
+        <v>94256.03910301247</v>
       </c>
       <c r="K6" t="n">
-        <v>163010.5557097639</v>
+        <v>156402.7258996615</v>
       </c>
       <c r="L6" t="n">
-        <v>163010.5557097638</v>
+        <v>152588.4185832713</v>
       </c>
       <c r="M6" t="n">
-        <v>58906.28114336107</v>
+        <v>58750.95011913893</v>
       </c>
       <c r="N6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="O6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="P6" t="n">
-        <v>-41803.1234897887</v>
+        <v>157315.9817021187</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26779,7 +26779,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="P3" t="n">
-        <v>948.897566995066</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26792,28 +26792,28 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="F4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="G4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="H4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="I4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>658.7614942451607</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>570.4627176512754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>355.4214666570009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.5194602934938</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.5194602934938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.5194602934938</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.67671015524656</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688227</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31870,7 +31870,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U12" t="n">
         <v>0.08398246702897151</v>
@@ -32581,7 +32581,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U21" t="n">
         <v>0.08398246702897151</v>
@@ -33292,7 +33292,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T30" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U30" t="n">
         <v>0.08398246702897151</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.81466358590981</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>39.06692344919885</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>147.0648178957881</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>323.7648035246131</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>485.2395131161754</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>601.9825238334629</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>669.8215473793864</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>680.6599602928527</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>642.727899260462</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>548.5533919833135</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>411.9407523129183</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>239.6228614784073</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>86.92664646391988</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>16.6986898473202</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3051730868727848</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.041024955423349</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>19.71200417474656</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27213114067234</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>192.8320989683087</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>329.5807709816731</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>443.1620193782146</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>517.1491740123109</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>530.8365738230228</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>485.6117577054844</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>389.746247847464</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.5350451870227</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>126.7225845130392</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>37.91114336060473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>8.226762868570427</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1342779575936415</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.711126760155037</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>15.21347246756025</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>51.45824838720785</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>120.9766619429611</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>198.801818134376</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>254.3978821415952</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>268.2268975032118</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>261.8490613971796</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>241.8599896990048</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>206.9530037918418</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.2835326162549</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>76.93848141569828</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>29.8202727201564</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>7.311177975207882</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09333418691754757</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>165.3469522521511</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>113.3808631277494</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988703</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>58.05132806838621</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K11" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K12" t="n">
-        <v>245.0916242622273</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N12" t="n">
         <v>200.663375406732</v>
@@ -35509,7 +35509,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K14" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124392</v>
       </c>
       <c r="O14" t="n">
-        <v>317.6558039850688</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
         <v>332.7559639452625</v>
@@ -35734,19 +35734,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N15" t="n">
-        <v>431.461804363634</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,13 +35889,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>140.7360160012659</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M17" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O17" t="n">
         <v>552.6880856233105</v>
@@ -35968,22 +35968,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M18" t="n">
-        <v>547.8788155747993</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269929</v>
+        <v>260.2059240505078</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>93.21164924381517</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L20" t="n">
         <v>140.7360160012659</v>
@@ -36135,10 +36135,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>240.7039008627217</v>
       </c>
       <c r="P20" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
         <v>247.6524856312129</v>
@@ -36205,16 +36205,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269929</v>
+        <v>508.2267551530878</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927643</v>
@@ -36363,7 +36363,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>391.4668765743286</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M23" t="n">
         <v>188.5852654802098</v>
@@ -36439,22 +36439,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>332.7559639452625</v>
+        <v>169.3834754461357</v>
       </c>
       <c r="L24" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P24" t="n">
-        <v>389.0981038304299</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q24" t="n">
         <v>233.0438950105733</v>
@@ -36600,7 +36600,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>322.7535243442413</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M26" t="n">
         <v>638.0987989730422</v>
@@ -36609,7 +36609,7 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O26" t="n">
-        <v>171.8879043605652</v>
+        <v>353.9054127035411</v>
       </c>
       <c r="P26" t="n">
         <v>433.6515619588832</v>
@@ -36679,19 +36679,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N27" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>317.2553593571593</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
         <v>233.0438950105733</v>
@@ -36916,19 +36916,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M30" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N30" t="n">
-        <v>658.7614942451607</v>
+        <v>248.7689815793677</v>
       </c>
       <c r="O30" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>317.2553593571602</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
         <v>233.0438950105733</v>
@@ -37071,13 +37071,13 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K32" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>558.3972305517163</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M32" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
         <v>196.2971847393761</v>
@@ -37086,7 +37086,7 @@
         <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>141.353087059828</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
         <v>247.6524856312129</v>
@@ -37150,22 +37150,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>332.7559639452625</v>
+        <v>309.0188256446278</v>
       </c>
       <c r="L33" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>547.8788155747998</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O33" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P33" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37311,16 +37311,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>140.7360160012659</v>
+        <v>322.7535243442418</v>
       </c>
       <c r="M35" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O35" t="n">
-        <v>366.0720217843896</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P35" t="n">
         <v>433.6515619588832</v>
@@ -37387,7 +37387,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K36" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
         <v>138.615755571408</v>
@@ -37399,10 +37399,10 @@
         <v>658.7614942451607</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P36" t="n">
-        <v>187.8582770930091</v>
+        <v>317.2553593571602</v>
       </c>
       <c r="Q36" t="n">
         <v>233.0438950105733</v>
@@ -37548,16 +37548,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>140.7360160012659</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M38" t="n">
-        <v>382.7693829040342</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N38" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O38" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
         <v>433.6515619588832</v>
@@ -37630,7 +37630,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>547.8788155747998</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N39" t="n">
         <v>200.663375406732</v>
@@ -37639,7 +37639,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
         <v>233.0438950105733</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K41" t="n">
         <v>407.5425384040863</v>
@@ -37791,10 +37791,10 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N41" t="n">
-        <v>410.1670120247339</v>
+        <v>198.4634459340622</v>
       </c>
       <c r="O41" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
         <v>433.6515619588832</v>
@@ -37867,7 +37867,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>547.8788155747998</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N42" t="n">
         <v>200.663375406732</v>
@@ -37876,7 +37876,7 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
         <v>233.0438950105733</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>142.7188989979268</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
-        <v>265.1496620711948</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>366.2161088634757</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M44" t="n">
-        <v>439.4753141521137</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N44" t="n">
-        <v>451.2468966962618</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O44" t="n">
-        <v>412.6296878387752</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>317.320396228044</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>189.6350624384688</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
-        <v>24.03732366427519</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>65.99447230164199</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>191.7393320073141</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>304.6076395983404</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>375.0151400902926</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N45" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
-        <v>561.8082376446828</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>255.7718404331338</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.5532711010011</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.61748182628833</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>176.5323263084932</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>281.9879074019113</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8107744650524</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9812337764082</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>266.4451176130444</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>204.2315630567353</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.12148936456056</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431889.0009836452</v>
+        <v>490742.4063030186</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3840854.495975444</v>
+        <v>3842442.348868399</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10457196.99249322</v>
+        <v>10498891.9951863</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8566164.688334364</v>
+        <v>8545531.187744074</v>
       </c>
     </row>
     <row r="11">
@@ -658,70 +658,70 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>66.46948864201228</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>40.02188483835985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>158.4661353097862</v>
       </c>
     </row>
     <row r="7">
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>137.0815656650981</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852072</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>227.7664834517761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>71.59646615385351</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>198.7614652726877</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.2457390334737</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>147.9721212459915</v>
       </c>
       <c r="T12" t="n">
         <v>195.0194028815133</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>202.3860496764734</v>
       </c>
       <c r="V13" t="n">
-        <v>231.9602421584223</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>296.2817567490233</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>49.22019372906284</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>45.44580843958686</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.6154320772804</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>88.73002741957576</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>80.80955923595799</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9537258292381445</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>51.98522155740221</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.1711547627076</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>125.1184542090899</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>49.22019372906276</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>67.6837840967396</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>35.46527312190288</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
-        <v>61.44251898056632</v>
+        <v>208.5563376786249</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>165.0140383262353</v>
+        <v>191.442026261026</v>
       </c>
       <c r="U25" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>235.1792348453237</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>187.7905827597745</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.1342366882634</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.9179969984925</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>221.8116428269911</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>143.3075316629638</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>46.02097823809485</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>31.64625174339801</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>128.1960058760379</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>412.9169039459368</v>
@@ -3082,22 +3082,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>228.2312087733593</v>
       </c>
     </row>
     <row r="33">
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>152.7119963927485</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>115.437790270055</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>11.9246083421511</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>119.6763813058195</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>110.9171408109517</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>122.1022459852816</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>118.0937320090558</v>
       </c>
       <c r="G38" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>203.7251057326018</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>180.8863211448342</v>
       </c>
       <c r="U40" t="n">
-        <v>232.6900396322376</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>211.6549344378063</v>
+        <v>86.5928519053335</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>20.90078060183509</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S42" t="n">
         <v>147.9721212459916</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>61.24335538749726</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>227.9017882635736</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>84.82658159569888</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>278.3906840967166</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>198.8885370273818</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>167.3459853195995</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,22 +4436,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4512,19 +4512,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.6311445709973</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>513.6311445709973</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>513.6311445709973</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>513.6311445709973</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>513.6311445709973</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>266.5980815799443</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>827.8051051802445</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>760.6642075620503</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>760.6642075620503</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>760.6642075620503</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>760.6642075620503</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>760.6642075620503</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>513.6311445709973</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>513.6311445709973</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.56501858889139</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>146.1858617037014</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>309.879344433331</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>551.996449470862</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>794.113554508393</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>978.2509294445696</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>937.824783143196</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>709.6016900172199</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>474.4495817854772</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W6" t="n">
-        <v>227.4165187944242</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X6" t="n">
-        <v>19.56501858889139</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.56501858889139</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>291.0988920136273</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>25.19784761800413</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>25.19784761800413</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>25.19784761800413</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>25.19784761800413</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573683</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098027</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369335</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806668</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806668</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806668</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806668</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>787.0670914110444</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>521.1660470154213</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>291.0988920136273</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>615.8309699900008</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>441.3779407088738</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>441.3779407088738</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>441.3779407088738</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>294.8433827357587</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.5237199540885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6374838154158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683217</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399124</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>398.824578434775</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>456.2953932224773</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>716.9050068346276</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>977.3180709271197</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271197</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>850.9830782217434</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>850.9830782217434</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>615.8309699900008</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>615.8309699900008</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X9" t="n">
-        <v>615.8309699900008</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>615.8309699900008</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1239.040304699543</v>
+        <v>1559.502432140531</v>
       </c>
       <c r="C11" t="n">
-        <v>1239.040304699543</v>
+        <v>1559.502432140531</v>
       </c>
       <c r="D11" t="n">
-        <v>880.774606092793</v>
+        <v>1201.236733533781</v>
       </c>
       <c r="E11" t="n">
-        <v>880.774606092793</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F11" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G11" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H11" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I11" t="n">
         <v>52.70091953961285</v>
@@ -5047,10 +5047,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L11" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M11" t="n">
-        <v>1219.059552207387</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N11" t="n">
         <v>1413.39376509937</v>
@@ -5068,25 +5068,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T11" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U11" t="n">
-        <v>2166.554411993505</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V11" t="n">
-        <v>1835.491524649934</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W11" t="n">
-        <v>1482.72286937982</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="X11" t="n">
-        <v>1239.040304699543</v>
+        <v>1559.502432140531</v>
       </c>
       <c r="Y11" t="n">
-        <v>1239.040304699543</v>
+        <v>1559.502432140531</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D12" t="n">
         <v>642.7351650238404</v>
@@ -5120,19 +5120,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J12" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K12" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L12" t="n">
-        <v>1005.150115568437</v>
+        <v>519.3589218611166</v>
       </c>
       <c r="M12" t="n">
-        <v>1232.27200203395</v>
+        <v>1159.904271328221</v>
       </c>
       <c r="N12" t="n">
-        <v>1430.928743686615</v>
+        <v>1812.07815063093</v>
       </c>
       <c r="O12" t="n">
         <v>1980.364752439338</v>
@@ -5159,10 +5159,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y12" t="n">
         <v>1134.337940986287</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>369.5501960499129</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C13" t="n">
-        <v>200.614013122006</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D13" t="n">
-        <v>200.614013122006</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F13" t="n">
         <v>52.70091953961285</v>
@@ -5232,19 +5232,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U13" t="n">
-        <v>1052.635600998958</v>
+        <v>848.2052477903986</v>
       </c>
       <c r="V13" t="n">
-        <v>818.3323260914603</v>
+        <v>848.2052477903986</v>
       </c>
       <c r="W13" t="n">
-        <v>818.3323260914603</v>
+        <v>848.2052477903986</v>
       </c>
       <c r="X13" t="n">
-        <v>590.342775193443</v>
+        <v>848.2052477903986</v>
       </c>
       <c r="Y13" t="n">
-        <v>369.5501960499129</v>
+        <v>848.2052477903986</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1643.506943208421</v>
+        <v>1246.734284253441</v>
       </c>
       <c r="C14" t="n">
-        <v>1274.544426268009</v>
+        <v>877.7717673130296</v>
       </c>
       <c r="D14" t="n">
-        <v>1274.544426268009</v>
+        <v>519.5060687062792</v>
       </c>
       <c r="E14" t="n">
-        <v>888.7561736697648</v>
+        <v>519.5060687062792</v>
       </c>
       <c r="F14" t="n">
-        <v>888.7561736697648</v>
+        <v>519.5060687062792</v>
       </c>
       <c r="G14" t="n">
-        <v>471.6683919061923</v>
+        <v>102.4182869427066</v>
       </c>
       <c r="H14" t="n">
-        <v>172.393890139502</v>
+        <v>102.4182869427066</v>
       </c>
       <c r="I14" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J14" t="n">
         <v>241.3408185533492</v>
@@ -5287,13 +5287,13 @@
         <v>784.1365874146478</v>
       </c>
       <c r="M14" t="n">
-        <v>970.8360002400555</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N14" t="n">
-        <v>1413.39376509937</v>
+        <v>1731.974486189138</v>
       </c>
       <c r="O14" t="n">
-        <v>1960.554969866448</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P14" t="n">
         <v>2389.870016205742</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T14" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U14" t="n">
-        <v>2420.246115248354</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V14" t="n">
-        <v>2420.246115248354</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W14" t="n">
-        <v>2420.246115248354</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X14" t="n">
-        <v>2420.246115248354</v>
+        <v>1636.873616229253</v>
       </c>
       <c r="Y14" t="n">
-        <v>2030.106783272543</v>
+        <v>1246.734284253441</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>791.6695746850918</v>
       </c>
       <c r="D15" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E15" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F15" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044917</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929655</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
         <v>171.3601713965085</v>
@@ -5366,13 +5366,13 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M15" t="n">
-        <v>1232.272002033951</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.928743686616</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P15" t="n">
         <v>2404.332520920175</v>
@@ -5381,7 +5381,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R15" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S15" t="n">
         <v>2464.467288245464</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>474.0662545396768</v>
+        <v>673.5921406391932</v>
       </c>
       <c r="C16" t="n">
-        <v>371.4244039565652</v>
+        <v>673.5921406391932</v>
       </c>
       <c r="D16" t="n">
-        <v>221.3077645442295</v>
+        <v>523.4755012268574</v>
       </c>
       <c r="E16" t="n">
-        <v>221.3077645442295</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="F16" t="n">
-        <v>221.3077645442295</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="G16" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H16" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I16" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J16" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7488491352227</v>
@@ -5469,19 +5469,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U16" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V16" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W16" t="n">
-        <v>474.0662545396768</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X16" t="n">
-        <v>474.0662545396768</v>
+        <v>673.5921406391932</v>
       </c>
       <c r="Y16" t="n">
-        <v>474.0662545396768</v>
+        <v>673.5921406391932</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1994.754433661672</v>
+        <v>878.3806881546661</v>
       </c>
       <c r="C17" t="n">
-        <v>1625.791916721261</v>
+        <v>878.3806881546661</v>
       </c>
       <c r="D17" t="n">
-        <v>1267.52621811451</v>
+        <v>520.1149895479157</v>
       </c>
       <c r="E17" t="n">
-        <v>881.7379655162658</v>
+        <v>134.3267369496714</v>
       </c>
       <c r="F17" t="n">
-        <v>470.7520607266583</v>
+        <v>134.3267369496714</v>
       </c>
       <c r="G17" t="n">
-        <v>53.66427896308574</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H17" t="n">
-        <v>53.66427896308574</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I17" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
         <v>241.3408185533492</v>
@@ -5524,13 +5524,13 @@
         <v>1032.36013938198</v>
       </c>
       <c r="M17" t="n">
-        <v>1219.059552207388</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N17" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O17" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P17" t="n">
         <v>2389.870016205742</v>
@@ -5554,13 +5554,13 @@
         <v>2381.354273725794</v>
       </c>
       <c r="W17" t="n">
-        <v>2381.354273725794</v>
+        <v>2028.585618455679</v>
       </c>
       <c r="X17" t="n">
-        <v>2381.354273725794</v>
+        <v>1655.1198601946</v>
       </c>
       <c r="Y17" t="n">
-        <v>2381.354273725794</v>
+        <v>1264.980528218788</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I18" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K18" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L18" t="n">
-        <v>638.0181737180123</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M18" t="n">
-        <v>1278.563523185117</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N18" t="n">
-        <v>1930.737402487826</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.341267297829</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P18" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q18" t="n">
         <v>2635.045976980643</v>
@@ -5633,10 +5633,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y18" t="n">
         <v>1134.337940986287</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.70091953961286</v>
+        <v>442.7542722775931</v>
       </c>
       <c r="C19" t="n">
-        <v>52.70091953961286</v>
+        <v>273.8180893496863</v>
       </c>
       <c r="D19" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E19" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F19" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J19" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K19" t="n">
         <v>153.7488491352227</v>
@@ -5706,19 +5706,19 @@
         <v>845.195316251363</v>
       </c>
       <c r="U19" t="n">
-        <v>556.0431398290427</v>
+        <v>845.195316251363</v>
       </c>
       <c r="V19" t="n">
-        <v>301.3586516231559</v>
+        <v>845.195316251363</v>
       </c>
       <c r="W19" t="n">
-        <v>52.70091953961286</v>
+        <v>845.195316251363</v>
       </c>
       <c r="X19" t="n">
-        <v>52.70091953961286</v>
+        <v>845.195316251363</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.70091953961286</v>
+        <v>624.4027371078329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>975.8573539063434</v>
+        <v>1197.016916850348</v>
       </c>
       <c r="C20" t="n">
-        <v>975.8573539063434</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D20" t="n">
-        <v>975.8573539063434</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E20" t="n">
-        <v>590.0691013080991</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F20" t="n">
-        <v>179.0831965184915</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G20" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H20" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I20" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J20" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K20" t="n">
-        <v>323.9039731279416</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L20" t="n">
-        <v>463.2326289691948</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M20" t="n">
-        <v>1094.950439952506</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N20" t="n">
-        <v>1722.258108012353</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O20" t="n">
-        <v>1960.554969866448</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P20" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5782,22 +5782,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.830939477471</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V20" t="n">
-        <v>2478.830939477471</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W20" t="n">
-        <v>2126.062284207357</v>
+        <v>1960.622007087239</v>
       </c>
       <c r="X20" t="n">
-        <v>1752.596525946277</v>
+        <v>1587.156248826159</v>
       </c>
       <c r="Y20" t="n">
-        <v>1362.457193970465</v>
+        <v>1197.016916850348</v>
       </c>
     </row>
     <row r="21">
@@ -5822,13 +5822,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H21" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I21" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
         <v>171.3601713965085</v>
@@ -5840,13 +5840,13 @@
         <v>638.0181737180123</v>
       </c>
       <c r="M21" t="n">
-        <v>1278.563523185117</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N21" t="n">
-        <v>1477.220264837782</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O21" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
         <v>2404.332520920175</v>
@@ -5855,7 +5855,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R21" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S21" t="n">
         <v>2464.467288245464</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.9176547334882</v>
+        <v>835.1636279647756</v>
       </c>
       <c r="C22" t="n">
-        <v>268.9814718055814</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="D22" t="n">
-        <v>200.614013122006</v>
+        <v>516.110805624533</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961286</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F22" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J22" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K22" t="n">
         <v>153.7488491352227</v>
@@ -5937,25 +5937,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U22" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V22" t="n">
-        <v>619.566119563728</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W22" t="n">
-        <v>619.566119563728</v>
+        <v>1016.812092795015</v>
       </c>
       <c r="X22" t="n">
-        <v>619.566119563728</v>
+        <v>1016.812092795015</v>
       </c>
       <c r="Y22" t="n">
-        <v>619.566119563728</v>
+        <v>1016.812092795015</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1328.626009176458</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="C23" t="n">
-        <v>1328.626009176458</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="D23" t="n">
-        <v>1328.626009176458</v>
+        <v>1477.225826043184</v>
       </c>
       <c r="E23" t="n">
-        <v>942.8377565782134</v>
+        <v>1091.437573444939</v>
       </c>
       <c r="F23" t="n">
-        <v>531.8518517886059</v>
+        <v>680.4516686553318</v>
       </c>
       <c r="G23" t="n">
-        <v>114.7640700250334</v>
+        <v>263.3638868917593</v>
       </c>
       <c r="H23" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I23" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J23" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K23" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L23" t="n">
-        <v>1032.36013938198</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M23" t="n">
-        <v>1219.059552207388</v>
+        <v>1163.078276489641</v>
       </c>
       <c r="N23" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O23" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P23" t="n">
         <v>2389.870016205742</v>
@@ -6016,25 +6016,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S23" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.830939477471</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U23" t="n">
-        <v>2478.830939477471</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V23" t="n">
-        <v>2478.830939477471</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W23" t="n">
-        <v>2478.830939477471</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X23" t="n">
-        <v>2105.365181216391</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="Y23" t="n">
-        <v>1715.225849240579</v>
+        <v>1835.491524649934</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J24" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K24" t="n">
-        <v>339.0498120881828</v>
+        <v>157.1026308627116</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4113519543014</v>
+        <v>661.4641707288301</v>
       </c>
       <c r="M24" t="n">
-        <v>1483.956701421406</v>
+        <v>1302.009520195935</v>
       </c>
       <c r="N24" t="n">
-        <v>2136.130580724115</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O24" t="n">
-        <v>2295.642893392876</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P24" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q24" t="n">
         <v>2635.045976980643</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K25" t="n">
         <v>153.7488491352227</v>
@@ -6177,22 +6177,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T25" t="n">
-        <v>885.9547542047806</v>
+        <v>859.2598168969112</v>
       </c>
       <c r="U25" t="n">
-        <v>596.8025777824604</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="V25" t="n">
-        <v>342.1180895765735</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W25" t="n">
-        <v>52.70091953961286</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y25" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1249.737123033205</v>
+        <v>1727.695792239844</v>
       </c>
       <c r="C26" t="n">
-        <v>880.774606092793</v>
+        <v>1358.733275299433</v>
       </c>
       <c r="D26" t="n">
-        <v>880.774606092793</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="E26" t="n">
-        <v>880.774606092793</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F26" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J26" t="n">
         <v>241.3408185533492</v>
@@ -6232,16 +6232,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L26" t="n">
-        <v>784.1365874146478</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M26" t="n">
-        <v>1415.85439839796</v>
+        <v>1384.320602645001</v>
       </c>
       <c r="N26" t="n">
-        <v>1610.188611289942</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.554969866448</v>
+        <v>2125.816020304061</v>
       </c>
       <c r="P26" t="n">
         <v>2389.870016205742</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T26" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U26" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V26" t="n">
-        <v>2264.031077745182</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W26" t="n">
-        <v>2264.031077745182</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="X26" t="n">
-        <v>2026.476295073138</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="Y26" t="n">
-        <v>1636.336963097326</v>
+        <v>2114.295632303966</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C27" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D27" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E27" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F27" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K27" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598653</v>
       </c>
       <c r="L27" t="n">
-        <v>1005.150115568437</v>
+        <v>376.1975890755593</v>
       </c>
       <c r="M27" t="n">
-        <v>1232.272002033951</v>
+        <v>1016.742938542664</v>
       </c>
       <c r="N27" t="n">
-        <v>1430.928743686616</v>
+        <v>1668.916817845373</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.364752439339</v>
+        <v>2218.352826598096</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q27" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6338,19 +6338,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V27" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W27" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y27" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221.6371024675198</v>
+        <v>544.4985905723713</v>
       </c>
       <c r="C28" t="n">
-        <v>52.70091953961286</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="D28" t="n">
-        <v>52.70091953961286</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="E28" t="n">
-        <v>52.70091953961286</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="F28" t="n">
-        <v>52.70091953961286</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="G28" t="n">
-        <v>52.70091953961286</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6411,25 +6411,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S28" t="n">
-        <v>878.7626346471765</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>878.7626346471765</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U28" t="n">
-        <v>878.7626346471765</v>
+        <v>799.1830787782582</v>
       </c>
       <c r="V28" t="n">
-        <v>624.0781464412896</v>
+        <v>544.4985905723713</v>
       </c>
       <c r="W28" t="n">
-        <v>624.0781464412896</v>
+        <v>544.4985905723713</v>
       </c>
       <c r="X28" t="n">
-        <v>624.0781464412896</v>
+        <v>544.4985905723713</v>
       </c>
       <c r="Y28" t="n">
-        <v>403.2855672977595</v>
+        <v>544.4985905723713</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>828.0543999099359</v>
+        <v>1151.196824149866</v>
       </c>
       <c r="C29" t="n">
-        <v>828.0543999099359</v>
+        <v>782.2343072094545</v>
       </c>
       <c r="D29" t="n">
-        <v>469.7887013031854</v>
+        <v>558.1821427377463</v>
       </c>
       <c r="E29" t="n">
-        <v>469.7887013031854</v>
+        <v>172.393890139502</v>
       </c>
       <c r="F29" t="n">
-        <v>469.7887013031854</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G29" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J29" t="n">
         <v>241.3408185533492</v>
       </c>
       <c r="K29" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L29" t="n">
-        <v>1032.36013938198</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M29" t="n">
-        <v>1219.059552207388</v>
+        <v>1508.435042357452</v>
       </c>
       <c r="N29" t="n">
-        <v>1413.39376509937</v>
+        <v>2135.742710417299</v>
       </c>
       <c r="O29" t="n">
-        <v>1960.554969866448</v>
+        <v>2305.911735734258</v>
       </c>
       <c r="P29" t="n">
-        <v>2389.870016205742</v>
+        <v>2416.646060983785</v>
       </c>
       <c r="Q29" t="n">
         <v>2635.045976980643</v>
@@ -6490,25 +6490,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S29" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T29" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U29" t="n">
-        <v>2275.491032760512</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V29" t="n">
-        <v>1944.428145416942</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="W29" t="n">
-        <v>1591.659490146827</v>
+        <v>1911.262422475068</v>
       </c>
       <c r="X29" t="n">
-        <v>1218.193731885748</v>
+        <v>1537.796664213988</v>
       </c>
       <c r="Y29" t="n">
-        <v>828.0543999099359</v>
+        <v>1537.796664213988</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D30" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K30" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598653</v>
       </c>
       <c r="L30" t="n">
-        <v>1005.150115568437</v>
+        <v>743.3295309259838</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.647451923042</v>
+        <v>922.8268672805887</v>
       </c>
       <c r="N30" t="n">
-        <v>1430.928743686616</v>
+        <v>1575.000746583298</v>
       </c>
       <c r="O30" t="n">
-        <v>1980.364752439339</v>
+        <v>2124.436755336021</v>
       </c>
       <c r="P30" t="n">
-        <v>2404.332520920175</v>
+        <v>2548.404523816857</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6575,19 +6575,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V30" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>246.0767036416594</v>
+        <v>253.2736753961467</v>
       </c>
       <c r="C31" t="n">
-        <v>246.0767036416594</v>
+        <v>253.2736753961467</v>
       </c>
       <c r="D31" t="n">
-        <v>246.0767036416594</v>
+        <v>253.2736753961467</v>
       </c>
       <c r="E31" t="n">
-        <v>199.5908670375232</v>
+        <v>253.2736753961467</v>
       </c>
       <c r="F31" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K31" t="n">
         <v>153.7488491352227</v>
@@ -6663,10 +6663,10 @@
         <v>474.0662545396768</v>
       </c>
       <c r="X31" t="n">
-        <v>246.0767036416594</v>
+        <v>474.0662545396768</v>
       </c>
       <c r="Y31" t="n">
-        <v>246.0767036416594</v>
+        <v>253.2736753961467</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1326.507831876648</v>
+        <v>1608.002821639955</v>
       </c>
       <c r="C32" t="n">
-        <v>957.5453149362368</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="D32" t="n">
-        <v>599.2796163294863</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E32" t="n">
-        <v>599.2796163294863</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F32" t="n">
         <v>469.7887013031854</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J32" t="n">
         <v>241.3408185533492</v>
@@ -6706,16 +6706,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M32" t="n">
-        <v>1219.059552207388</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N32" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O32" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P32" t="n">
         <v>2389.870016205742</v>
@@ -6730,22 +6730,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U32" t="n">
-        <v>2010.339374490333</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V32" t="n">
-        <v>1679.276487146763</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W32" t="n">
-        <v>1326.507831876648</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="X32" t="n">
-        <v>1326.507831876648</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="Y32" t="n">
-        <v>1326.507831876648</v>
+        <v>1994.602661704077</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C33" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D33" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E33" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F33" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J33" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K33" t="n">
-        <v>477.28880878469</v>
+        <v>238.9679910598653</v>
       </c>
       <c r="L33" t="n">
-        <v>981.6503486508086</v>
+        <v>743.3295309259838</v>
       </c>
       <c r="M33" t="n">
-        <v>1622.195698117913</v>
+        <v>1383.874880393088</v>
       </c>
       <c r="N33" t="n">
-        <v>1820.852439770578</v>
+        <v>1638.905258545105</v>
       </c>
       <c r="O33" t="n">
-        <v>1980.364752439339</v>
+        <v>2188.341267297828</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q33" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S33" t="n">
         <v>2464.467288245464</v>
@@ -6812,19 +6812,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U33" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V33" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W33" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X33" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y33" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>353.8454088483803</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="C34" t="n">
-        <v>353.8454088483803</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="D34" t="n">
-        <v>353.8454088483803</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="E34" t="n">
-        <v>353.8454088483803</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F34" t="n">
-        <v>206.95546135047</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J34" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K34" t="n">
         <v>153.7488491352227</v>
@@ -6882,28 +6882,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R34" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S34" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="T34" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="U34" t="n">
-        <v>763.4834245766374</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="V34" t="n">
-        <v>763.4834245766374</v>
+        <v>667.4731515124735</v>
       </c>
       <c r="W34" t="n">
-        <v>763.4834245766374</v>
+        <v>667.4731515124735</v>
       </c>
       <c r="X34" t="n">
-        <v>535.49387367862</v>
+        <v>550.8693229568623</v>
       </c>
       <c r="Y34" t="n">
-        <v>535.49387367862</v>
+        <v>550.8693229568623</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1636.873616229253</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.873616229253</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.607917622503</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E35" t="n">
-        <v>892.8196650242587</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F35" t="n">
-        <v>481.8337602346512</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G35" t="n">
-        <v>64.74597847107862</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H35" t="n">
-        <v>64.74597847107862</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J35" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K35" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L35" t="n">
-        <v>964.333920674194</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M35" t="n">
-        <v>1596.051731657506</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N35" t="n">
-        <v>1790.385944549488</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O35" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P35" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6967,22 +6967,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U35" t="n">
-        <v>2010.339374490333</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V35" t="n">
-        <v>2010.339374490333</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W35" t="n">
-        <v>2010.339374490333</v>
+        <v>2357.945705835229</v>
       </c>
       <c r="X35" t="n">
-        <v>1636.873616229253</v>
+        <v>1984.479947574149</v>
       </c>
       <c r="Y35" t="n">
-        <v>1636.873616229253</v>
+        <v>1594.340615598337</v>
       </c>
     </row>
     <row r="36">
@@ -6992,55 +6992,55 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C36" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D36" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E36" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F36" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H36" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J36" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K36" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029697</v>
       </c>
       <c r="L36" t="n">
-        <v>638.0181737180123</v>
+        <v>624.6702790690882</v>
       </c>
       <c r="M36" t="n">
-        <v>1278.563523185117</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N36" t="n">
-        <v>1930.737402487826</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O36" t="n">
-        <v>2090.249715156587</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P36" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q36" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7049,19 +7049,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U36" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V36" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W36" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X36" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y36" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>350.7306525343417</v>
+        <v>650.1945570251878</v>
       </c>
       <c r="C37" t="n">
-        <v>350.7306525343417</v>
+        <v>481.2583740972809</v>
       </c>
       <c r="D37" t="n">
-        <v>200.614013122006</v>
+        <v>481.2583740972809</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961286</v>
+        <v>333.3452805148878</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961286</v>
+        <v>333.3452805148878</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961286</v>
+        <v>164.7384355102712</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7125,22 +7125,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>929.2999989936227</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>640.1478225713024</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V37" t="n">
-        <v>640.1478225713024</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W37" t="n">
-        <v>350.7306525343417</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X37" t="n">
-        <v>350.7306525343417</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y37" t="n">
-        <v>350.7306525343417</v>
+        <v>831.8430218554275</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1813.785756723391</v>
+        <v>1702.091767437537</v>
       </c>
       <c r="C38" t="n">
-        <v>1444.823239782979</v>
+        <v>1333.129250497125</v>
       </c>
       <c r="D38" t="n">
-        <v>1086.557541176229</v>
+        <v>974.863551890375</v>
       </c>
       <c r="E38" t="n">
-        <v>1086.557541176229</v>
+        <v>589.0752992921307</v>
       </c>
       <c r="F38" t="n">
-        <v>675.5716363866215</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G38" t="n">
-        <v>258.483854623049</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H38" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J38" t="n">
         <v>241.3408185533492</v>
@@ -7180,16 +7180,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>1032.36013938198</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M38" t="n">
-        <v>1219.059552207388</v>
+        <v>1596.051731657505</v>
       </c>
       <c r="N38" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P38" t="n">
         <v>2389.870016205742</v>
@@ -7201,25 +7201,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S38" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U38" t="n">
-        <v>2166.554411993505</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V38" t="n">
-        <v>2166.554411993505</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W38" t="n">
-        <v>1813.785756723391</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X38" t="n">
-        <v>1813.785756723391</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="Y38" t="n">
-        <v>1813.785756723391</v>
+        <v>2088.691607501659</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D39" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E39" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F39" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J39" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K39" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L39" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115411</v>
       </c>
       <c r="M39" t="n">
-        <v>1232.27200203395</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N39" t="n">
-        <v>1430.928743686615</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O39" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P39" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q39" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R39" t="n">
         <v>2613.934077382829</v>
@@ -7286,7 +7286,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U39" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V39" t="n">
         <v>1804.187096684975</v>
@@ -7298,7 +7298,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y39" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.70091953961286</v>
+        <v>688.2736804668652</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70091953961286</v>
+        <v>519.3374975389584</v>
       </c>
       <c r="D40" t="n">
-        <v>52.70091953961286</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="E40" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F40" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K40" t="n">
         <v>153.7488491352227</v>
@@ -7362,22 +7362,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T40" t="n">
-        <v>1052.635600998958</v>
+        <v>869.922145297105</v>
       </c>
       <c r="U40" t="n">
-        <v>817.5951569259904</v>
+        <v>869.922145297105</v>
       </c>
       <c r="V40" t="n">
-        <v>562.9106687201036</v>
+        <v>869.922145297105</v>
       </c>
       <c r="W40" t="n">
-        <v>273.4934986831429</v>
+        <v>869.922145297105</v>
       </c>
       <c r="X40" t="n">
-        <v>273.4934986831429</v>
+        <v>869.922145297105</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.70091953961286</v>
+        <v>869.922145297105</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1421.533638602706</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="C41" t="n">
-        <v>1207.740775534215</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="D41" t="n">
-        <v>849.4750769274647</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E41" t="n">
-        <v>463.6868243292204</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F41" t="n">
-        <v>52.70091953961286</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J41" t="n">
         <v>73.93516953299616</v>
@@ -7420,13 +7420,13 @@
         <v>1030.215540799241</v>
       </c>
       <c r="M41" t="n">
-        <v>1216.914953624649</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N41" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P41" t="n">
         <v>2389.870016205742</v>
@@ -7441,22 +7441,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.830939477471</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V41" t="n">
-        <v>2147.7680521339</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W41" t="n">
-        <v>1794.999396863786</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X41" t="n">
-        <v>1421.533638602706</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y41" t="n">
-        <v>1421.533638602706</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C42" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D42" t="n">
         <v>642.7351650238404</v>
@@ -7481,31 +7481,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G42" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H42" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I42" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J42" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K42" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L42" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M42" t="n">
-        <v>1232.272002033951</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N42" t="n">
-        <v>1430.928743686616</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O42" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P42" t="n">
         <v>2404.332520920175</v>
@@ -7514,7 +7514,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R42" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S42" t="n">
         <v>2464.467288245464</v>
@@ -7529,10 +7529,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W42" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X42" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y42" t="n">
         <v>1134.337940986287</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.70091953961286</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="C43" t="n">
-        <v>52.70091953961286</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="D43" t="n">
-        <v>52.70091953961286</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="E43" t="n">
-        <v>52.70091953961286</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="F43" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K43" t="n">
         <v>153.7488491352227</v>
@@ -7602,19 +7602,19 @@
         <v>827.0064043113226</v>
       </c>
       <c r="U43" t="n">
-        <v>596.8025777824604</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V43" t="n">
-        <v>342.1180895765735</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W43" t="n">
-        <v>52.70091953961286</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="X43" t="n">
-        <v>52.70091953961286</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.70091953961286</v>
+        <v>283.1697396831156</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>828.0543999099359</v>
+        <v>1532.065767735671</v>
       </c>
       <c r="C44" t="n">
-        <v>828.0543999099359</v>
+        <v>1532.065767735671</v>
       </c>
       <c r="D44" t="n">
-        <v>469.7887013031854</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="E44" t="n">
-        <v>469.7887013031854</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F44" t="n">
-        <v>469.7887013031854</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G44" t="n">
-        <v>52.70091953961286</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H44" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J44" t="n">
         <v>241.3408185533492</v>
@@ -7654,19 +7654,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L44" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M44" t="n">
-        <v>1219.059552207388</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N44" t="n">
-        <v>1413.39376509937</v>
+        <v>2043.162066457806</v>
       </c>
       <c r="O44" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P44" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7678,22 +7678,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T44" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U44" t="n">
-        <v>2166.554411993505</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V44" t="n">
-        <v>1835.491524649934</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W44" t="n">
-        <v>1482.72286937982</v>
+        <v>2295.670857972562</v>
       </c>
       <c r="X44" t="n">
-        <v>1109.257111118741</v>
+        <v>1922.205099711482</v>
       </c>
       <c r="Y44" t="n">
-        <v>828.0543999099359</v>
+        <v>1532.065767735671</v>
       </c>
     </row>
     <row r="45">
@@ -7703,55 +7703,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C45" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D45" t="n">
-        <v>642.7351650238404</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E45" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F45" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G45" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H45" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J45" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K45" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029697</v>
       </c>
       <c r="L45" t="n">
-        <v>1005.150115568437</v>
+        <v>624.6702790690882</v>
       </c>
       <c r="M45" t="n">
-        <v>1232.272002033951</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N45" t="n">
-        <v>1430.928743686616</v>
+        <v>1820.852439770577</v>
       </c>
       <c r="O45" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P45" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q45" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R45" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S45" t="n">
         <v>2464.467288245464</v>
@@ -7760,19 +7760,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U45" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V45" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X45" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y45" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.4244039565652</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C46" t="n">
-        <v>371.4244039565652</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D46" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E46" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F46" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K46" t="n">
         <v>153.7488491352227</v>
@@ -7839,19 +7839,19 @@
         <v>827.0064043113226</v>
       </c>
       <c r="U46" t="n">
-        <v>626.1088921624521</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="V46" t="n">
-        <v>371.4244039565652</v>
+        <v>572.3219161054358</v>
       </c>
       <c r="W46" t="n">
-        <v>371.4244039565652</v>
+        <v>403.2855672977595</v>
       </c>
       <c r="X46" t="n">
-        <v>371.4244039565652</v>
+        <v>403.2855672977595</v>
       </c>
       <c r="Y46" t="n">
-        <v>371.4244039565652</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>136.8385818314783</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
-        <v>305.4787308973524</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>187.6430684261042</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368072</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>250.7308605730627</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>8.862918322875913</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>250.7308605730631</v>
+        <v>123.0160352517129</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617263553</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>250.7308605730632</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>28.32808613262424</v>
       </c>
       <c r="N18" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O18" t="n">
-        <v>99.08237590024453</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>214.4812518545905</v>
       </c>
       <c r="O20" t="n">
-        <v>68.81599650215651</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9488,13 +9488,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O21" t="n">
-        <v>347.1032070028245</v>
+        <v>354.7101519143952</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9640,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>250.7308605730632</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>100.6683154445382</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K24" t="n">
-        <v>101.0927485134518</v>
+        <v>37.16554713105222</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,25 +9880,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>182.017508342976</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>154.8683541940949</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>48.10560617263553</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>78.07077454018153</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10114,28 +10114,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>250.7308605730632</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>185.2684807830934</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>48.1056061726357</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>64.55001208263407</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>250.7308605730632</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>240.7280987119439</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>56.94306717106289</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>182.017508342976</v>
+        <v>67.08071667170742</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>207.4678568043331</v>
+        <v>37.16554713105188</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,16 +10828,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>250.7308605730632</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>213.8698272853574</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>20.72114122105265</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2.166261194685774</v>
       </c>
       <c r="N41" t="n">
-        <v>2.166261194686115</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>48.10560617263553</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11302,22 +11302,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>250.7308605730632</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>278.7842827623788</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>48.10560617263553</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>360.5859288704237</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>277.0585344134748</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22594,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22606,10 +22606,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22676,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7252358559294</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>94.7608136808341</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>142.214025564616</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>125.1683683173266</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="6">
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>160.110992158359</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>7.132250799777211</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>47.21656046751821</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,25 +22983,25 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>115.0560776587299</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>102.0308578193407</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574613</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268022</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.4714552042775</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23111,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>65.69755052584215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6879292296158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>183.1689047995741</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.4853616449953</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.9207765545704</v>
@@ -23472,19 +23472,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>83.87460498162355</v>
       </c>
       <c r="V13" t="n">
-        <v>20.17740116540566</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>18.75912732619224</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>69.27584716482747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>65.63138902134742</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>123.266557879417</v>
@@ -23709,7 +23709,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>136.9796279694614</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>332.1073447099788</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>117.5423150646522</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>96.63025146081014</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23946,19 +23946,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>40.35184357388343</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>287.7984497368469</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>315.0408840752156</v>
@@ -24022,16 +24022,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>300.0207749883502</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.93168892147276</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
@@ -24177,10 +24177,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>251.0577252146881</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>253.5983650946492</v>
+        <v>106.4845463965906</v>
       </c>
       <c r="I23" t="n">
         <v>118.4960408938903</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24417,19 +24417,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>58.35886639452337</v>
+        <v>31.93087845973267</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24463,7 +24463,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>134.5518658331453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>198.447355896279</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>123.266557879417</v>
@@ -24651,13 +24651,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
-        <v>33.23164521185527</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>35.3426576596045</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>132.8713987936918</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>107.8472545593369</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>100.4129844084743</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>113.7747962795332</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>278.6800398656735</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>158.0067298826943</v>
       </c>
     </row>
     <row r="33">
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>14.20878016182192</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>205.3658819001186</v>
@@ -25131,16 +25131,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>110.2718651189821</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>106.5714325517392</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>229.5645874115935</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>152.7120966692326</v>
+        <v>41.79495585828082</v>
       </c>
       <c r="I37" t="n">
         <v>123.266557879417</v>
@@ -25365,22 +25365,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>101.2706587354771</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>288.7823137326556</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>111.3157783426138</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
         <v>118.4960408938903</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>152.7120966692326</v>
@@ -25602,22 +25602,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>42.48658357592453</v>
       </c>
       <c r="U40" t="n">
-        <v>53.57061502585941</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>153.6179573332013</v>
+        <v>278.6800398656741</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>84.17769263543398</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>152.7120966692326</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>58.3588663945234</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>118.4960408938903</v>
@@ -25918,22 +25918,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>264.4143871217141</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>107.847254559337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
         <v>152.7120966692326</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>87.37211763071519</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>119.1770130169915</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378617</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493620.5445765709</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>509635.5853000617</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477288</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477288</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>141236.5716516326</v>
+      </c>
+      <c r="C2" t="n">
         <v>141236.5716516325</v>
       </c>
-      <c r="C2" t="n">
-        <v>142222.1657638405</v>
-      </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>252134.9940623532</v>
@@ -26346,16 +26346,16 @@
         <v>252134.9940623532</v>
       </c>
       <c r="M2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.994062353</v>
       </c>
       <c r="N2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="O2" t="n">
+        <v>252134.9940623532</v>
+      </c>
+      <c r="P2" t="n">
         <v>252134.9940623531</v>
-      </c>
-      <c r="P2" t="n">
-        <v>252134.9940623532</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753564</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>576404.8681646985</v>
+        <v>601530.6045241205</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847434</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>98565.03158297982</v>
+        <v>104104.2745664029</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>50385.00392753457</v>
       </c>
       <c r="C4" t="n">
-        <v>50404.27455704983</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="D4" t="n">
-        <v>50480.80391628888</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="E4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="F4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="G4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="H4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="I4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="J4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="K4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="L4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="N4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="O4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="P4" t="n">
         <v>36133.96051511372</v>
@@ -26472,46 +26472,46 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
       </c>
       <c r="F5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="G5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="H5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="I5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="O5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="P5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50417.14319125188</v>
+        <v>-39420.93363321543</v>
       </c>
       <c r="C6" t="n">
-        <v>26588.92740361415</v>
+        <v>41348.49789833227</v>
       </c>
       <c r="D6" t="n">
-        <v>12499.89299923303</v>
+        <v>41348.49789833224</v>
       </c>
       <c r="E6" t="n">
-        <v>-419088.8864625798</v>
+        <v>-439089.5062151211</v>
       </c>
       <c r="F6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="G6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="H6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="I6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="J6" t="n">
-        <v>94256.03910301247</v>
+        <v>99381.15570989314</v>
       </c>
       <c r="K6" t="n">
-        <v>156402.7258996615</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="L6" t="n">
-        <v>152588.4185832713</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="M6" t="n">
-        <v>58750.95011913893</v>
+        <v>58336.8237425963</v>
       </c>
       <c r="N6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="O6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="P6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089993</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26792,46 +26792,46 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="F4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="G4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="H4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="I4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.4627176512754</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>395.5194602934938</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.5194602934938</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.5194602934938</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367679</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887802</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035003</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760445</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324509</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841739</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544934</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679593</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318454</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294142</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104788</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.67671015524656</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750316</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688227</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523081</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605604</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.919449770552396</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467892</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994849</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259059</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166742</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471434</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988743</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848031</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150904</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.01918103713195</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750111</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815375</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31870,7 +31870,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U12" t="n">
         <v>0.08398246702897151</v>
@@ -32943,7 +32943,7 @@
         <v>24.43391804055158</v>
       </c>
       <c r="I26" t="n">
-        <v>91.97984867651562</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J26" t="n">
         <v>202.4946418937401</v>
@@ -32955,7 +32955,7 @@
         <v>376.5024309712531</v>
       </c>
       <c r="M26" t="n">
-        <v>418.9314987074825</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N26" t="n">
         <v>425.710248335967</v>
@@ -33028,7 +33028,7 @@
         <v>120.6044214847383</v>
       </c>
       <c r="K27" t="n">
-        <v>206.1321659070429</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L27" t="n">
         <v>277.1701353512822</v>
@@ -33055,7 +33055,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T27" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U27" t="n">
         <v>0.08398246702897151</v>
@@ -33098,7 +33098,7 @@
         <v>1.070202803888314</v>
       </c>
       <c r="H28" t="n">
-        <v>9.515075838207016</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I28" t="n">
         <v>32.18391704784131</v>
@@ -33110,7 +33110,7 @@
         <v>124.3381075790241</v>
       </c>
       <c r="L28" t="n">
-        <v>159.1099695889954</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M28" t="n">
         <v>167.7591540676927</v>
@@ -33125,7 +33125,7 @@
         <v>129.436164572092</v>
       </c>
       <c r="Q28" t="n">
-        <v>89.61489115104783</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R28" t="n">
         <v>48.12020970937817</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
-        <v>165.3469522521511</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988703</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889699</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>58.05132806838621</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903819</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025438</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M11" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O11" t="n">
         <v>552.6880856233105</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>169.9864664731392</v>
       </c>
       <c r="P12" t="n">
         <v>428.2502711927643</v>
@@ -35655,16 +35655,16 @@
         <v>140.7360160012659</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N14" t="n">
-        <v>447.0280453124392</v>
+        <v>319.313219991089</v>
       </c>
       <c r="O14" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q14" t="n">
         <v>247.6524856312129</v>
@@ -35734,10 +35734,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348626</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
@@ -35889,7 +35889,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>391.466876574329</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M17" t="n">
         <v>188.5852654802098</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>209.6385268948513</v>
       </c>
       <c r="N18" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O18" t="n">
-        <v>260.2059240505078</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K20" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513602</v>
+        <v>410.7784365939666</v>
       </c>
       <c r="O20" t="n">
-        <v>240.7039008627217</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>138.615755571408</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O21" t="n">
-        <v>508.2267551530878</v>
+        <v>515.8337000646585</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927643</v>
@@ -36360,19 +36360,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K23" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L23" t="n">
-        <v>391.466876574329</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M23" t="n">
-        <v>188.5852654802098</v>
+        <v>289.253580924748</v>
       </c>
       <c r="N23" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O23" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P23" t="n">
         <v>433.6515619588832</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.3834754461357</v>
+        <v>105.4562740637361</v>
       </c>
       <c r="L24" t="n">
         <v>509.4561008748672</v>
@@ -36448,16 +36448,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O24" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
         <v>109.7875025528271</v>
       </c>
       <c r="Q24" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,19 +36600,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M26" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802097</v>
       </c>
       <c r="N26" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O26" t="n">
-        <v>353.9054127035411</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P26" t="n">
-        <v>433.6515619588832</v>
+        <v>266.7212079814955</v>
       </c>
       <c r="Q26" t="n">
         <v>247.6524856312129</v>
@@ -36676,22 +36676,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L27" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M27" t="n">
-        <v>229.4160469348626</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927643</v>
+        <v>187.8582770930086</v>
       </c>
       <c r="Q27" t="n">
         <v>233.0438950105733</v>
@@ -36773,7 +36773,7 @@
         <v>126.7147238369855</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.452847899353443</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K29" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L29" t="n">
-        <v>391.466876574329</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M29" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N29" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O29" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P29" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.6524856312129</v>
+        <v>220.6059757544016</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L30" t="n">
         <v>509.4561008748672</v>
@@ -36922,7 +36922,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N30" t="n">
-        <v>248.7689815793677</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
@@ -36931,7 +36931,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
-        <v>233.0438950105733</v>
+        <v>87.51661935735829</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>391.466876574329</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M32" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O32" t="n">
         <v>552.6880856233105</v>
@@ -37150,7 +37150,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>309.0188256446278</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L33" t="n">
         <v>509.4561008748672</v>
@@ -37159,16 +37159,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>200.663375406732</v>
+        <v>257.6064425777949</v>
       </c>
       <c r="O33" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K35" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>322.7535243442418</v>
+        <v>207.8167326729733</v>
       </c>
       <c r="M35" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O35" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L36" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P36" t="n">
-        <v>317.2553593571602</v>
+        <v>146.953049683879</v>
       </c>
       <c r="Q36" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>391.466876574329</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5852654802098</v>
+        <v>402.4550927655672</v>
       </c>
       <c r="N38" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P38" t="n">
         <v>433.6515619588832</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>332.7559639452625</v>
@@ -37630,16 +37630,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N39" t="n">
-        <v>200.663375406732</v>
+        <v>221.3845166277846</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q39" t="n">
         <v>233.0438950105733</v>
@@ -37788,10 +37788,10 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>190.7515266748955</v>
       </c>
       <c r="N41" t="n">
-        <v>198.4634459340622</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>332.7559639452625</v>
@@ -37867,7 +37867,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>229.4160469348626</v>
+        <v>349.2738770933425</v>
       </c>
       <c r="N42" t="n">
         <v>200.663375406732</v>
@@ -38022,22 +38022,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>391.466876574329</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M44" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
-        <v>552.6880856233105</v>
+        <v>450.672187122944</v>
       </c>
       <c r="P44" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L45" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>229.4160469348626</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>200.663375406732</v>
+        <v>561.2493042771557</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P45" t="n">
         <v>428.2502711927643</v>
